--- a/archive/docs/IDM232 Instructions.xlsx
+++ b/archive/docs/IDM232 Instructions.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/laurenlee/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/laurenlee/Documents/GitHub/idm232/archive/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B658A17E-7974-704F-95C9-94DC22465DF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97902E83-161B-4440-BDEC-C7D7DEA723D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10080" yWindow="1260" windowWidth="20800" windowHeight="21900" xr2:uid="{F7CD4F06-DC3D-6245-AB3C-40B7BAB7A57B}"/>
+    <workbookView xWindow="10080" yWindow="500" windowWidth="20800" windowHeight="21900" xr2:uid="{F7CD4F06-DC3D-6245-AB3C-40B7BAB7A57B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1164,10 +1164,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DAD0533-E640-F84E-A151-48835B015C2E}">
   <dimension ref="A1:H44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A40" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="F44" sqref="F44"/>
+      <selection pane="bottomLeft" activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1230,7 +1230,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="85">
+    <row r="3" spans="1:8" ht="51">
       <c r="A3" t="s">
         <v>16</v>
       </c>
